--- a/src/tests/option-longshift.test-cases.xlsx
+++ b/src/tests/option-longshift.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1C0A7-1A38-FD40-B85B-B1502C7F9B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCAE5A5-4F7F-064E-A133-E006B35F5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="4460" windowWidth="41860" windowHeight="19760" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="6360" yWindow="4460" windowWidth="41860" windowHeight="19760" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carPassengersKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>privateCarAnnualMileage</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,10 +404,6 @@
   </si>
   <si>
     <t>motorbikeWeeklyTravelingTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1_private-car-factor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -788,6 +780,10 @@
       <t>ゾウゲン</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>carPassengersFirstKey</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1273,6 +1269,14 @@
     <xf numFmtId="9" fontId="10" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1282,14 +1286,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2538,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>55</v>
@@ -2581,21 +2577,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2603,7 +2599,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -2620,16 +2616,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -2637,13 +2633,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>5000</v>
@@ -2654,13 +2650,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -2671,13 +2667,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2688,13 +2684,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2705,13 +2701,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2722,30 +2718,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -2756,13 +2752,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -2773,13 +2769,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -2790,13 +2786,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -2807,13 +2803,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2824,13 +2820,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -2841,13 +2837,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -2870,7 +2866,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2925,21 +2921,21 @@
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
+      <c r="L1" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="24">
         <v>0</v>
@@ -2971,13 +2967,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="26">
         <v>24174.201144952451</v>
@@ -3004,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M3" s="34">
         <v>1225</v>
@@ -3015,13 +3011,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="26">
         <v>8964.2011449524507</v>
@@ -3048,7 +3044,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M4" s="34">
         <v>600</v>
@@ -3059,13 +3055,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="26">
         <v>0</v>
@@ -3091,21 +3087,21 @@
       <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="26">
         <v>1072.0879061735334</v>
@@ -3131,21 +3127,21 @@
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="44"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="26">
         <v>3524.5098039215618</v>
@@ -3177,13 +3173,13 @@
     </row>
     <row r="8" spans="1:14" ht="21" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="25">
         <v>0</v>
@@ -3209,25 +3205,25 @@
       <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="46">
+      <c r="L8" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="43">
         <v>12000</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="23">
         <v>1345</v>
@@ -3253,25 +3249,25 @@
       <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="46">
+      <c r="L9" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="43">
         <v>120</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="23">
         <v>264.01333542371003</v>
@@ -3299,19 +3295,19 @@
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="21" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="23">
         <v>168.93444059755035</v>
@@ -3343,19 +3339,19 @@
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="29">
         <v>3.532041751389401E-2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>18</v>
@@ -3376,7 +3372,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M12" s="37">
         <v>0</v>
@@ -3385,19 +3381,19 @@
     </row>
     <row r="13" spans="1:14" ht="21" thickBot="1">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="23">
         <v>1.3929601241108407E-2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -3418,7 +3414,7 @@
         <v>46</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M13" s="37">
         <v>0.29509803921568761</v>
@@ -3427,19 +3423,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="24">
         <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -3460,7 +3456,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M14" s="37">
         <v>1</v>
@@ -3469,13 +3465,13 @@
     </row>
     <row r="15" spans="1:14" ht="21" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="25">
         <v>45.238293750260034</v>
@@ -3503,19 +3499,19 @@
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="23">
         <v>2.3580759098686901</v>
@@ -3543,21 +3539,21 @@
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="43">
+        <v>80</v>
+      </c>
+      <c r="D17" s="40">
         <v>0.40666774884274093</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -3566,7 +3562,7 @@
       <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="48" t="b">
+      <c r="G17" s="45" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
